--- a/assignment 4/item_fit_all.xlsx
+++ b/assignment 4/item_fit_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpeter/Desktop/PhD_Learning/HUDM6052 Psychometric II/HUDM6052_Psychometic_II/assignment 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B1932F-D863-1E42-89A7-E67D497249A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04A8F517-9FAB-E44F-8FF4-A40D8876F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
@@ -282,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,8 +462,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -578,6 +590,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -623,15 +650,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -990,805 +1019,805 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>23.056574663633501</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.45747123772327097</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>23.056574663633501</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>0.45747123772327097</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>23.8799536234649</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.35355339958751703</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>30.474306013457898</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.107384599779093</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>30.474306013457898</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>0.107384599779093</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>28.602387221169899</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>0.123879273303606</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>22.456580669279301</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>0.492850484695596</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>22.456580669279301</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>0.492850484695596</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>21.706420055921999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>0.47752436106135798</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>19.225443938938</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>0.63136888306953298</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>19.225443938938</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0.63136888306953298</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>17.455849034511299</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>0.68313081721829605</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>52.836233348046299</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>1.41935634009972E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>52.836233348046299</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>1.41935634009972E-3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>39.3238015991748</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>1.82768221179096E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>26.846109636378799</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>0.21712979108925001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>26.846109636378799</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0.21712979108925001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>23.9948604424346</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>0.29330762534334798</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>30.4323788298809</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>0.17083161443567399</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>30.4323788298809</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.17083161443567399</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>30.826883426054199</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>0.12710586749149799</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>31.523489996768401</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>0.13925523087418301</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>31.523489996768401</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>0.13925523087418301</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>23.074671405991399</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0.45641751211592901</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>16.429943209356399</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>0.68961870192106101</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>16.429943209356399</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>0.68961870192106101</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>12.8670266053755</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>0.79941127846469695</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>17.478724733932399</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>0.736408678489894</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>17.478724733932399</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.736408678489894</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>16.874733397328601</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0.71867119212858199</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>22.830033827926201</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>0.52984946661513699</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>22.830033827926201</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>0.52984946661513699</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>20.6982294208639</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>0.59951043809811799</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>24.648358828862499</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>0.262714922197537</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>24.648358828862499</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>0.262714922197537</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>19.3899534872012</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>0.36818899916085002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>23.118811014581901</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>0.51279356720429103</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>23.118811014581901</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>0.51279356720429103</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>20.506890751020801</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>0.61117313469228296</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>21.040889789203501</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>0.69032740244337298</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>21.040889789203501</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>0.69032740244337298</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>17.235105124014702</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0.79755717967919304</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>25.327052519081299</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0.38816638612344401</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>25.327052519081299</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0.38816638612344401</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>22.754990427701099</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0.53429759924385101</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>17.967893860376499</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>0.80456306857405502</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>17.967893860376499</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>0.80456306857405502</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>17.158402272805301</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>0.80140662806640195</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>22.317307743828302</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>0.50117140255050197</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>22.317307743828302</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>0.50117140255050197</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>19.124667392922099</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>0.637617983034935</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>20.762898190517198</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>0.70575314044981396</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>20.762898190517198</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>0.70575314044981396</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>20.199468351591499</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>0.68537805923830097</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>33.257711889200202</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>0.124749987698383</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>33.257711889200202</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>0.124749987698383</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>23.345016362312499</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>0.44078137845578402</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>20.404602710740601</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>0.673550144905114</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>20.404602710740601</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>0.673550144905114</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>20.8114211203671</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>0.59260270747786603</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>14.493894073469001</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>0.95242528664830195</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>14.493894073469001</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>0.95242528664830195</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>13.5268885949866</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>0.95662461167524904</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>21.081314853208301</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>0.63392365773175696</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>21.081314853208301</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.63392365773175696</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>21.062825553322</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.57725071544154705</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>21.333045354744101</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>0.56075676415483999</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>21.333045354744101</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>0.56075676415483999</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>21.4360198824584</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>0.49394928913070002</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>17.672971930714599</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>0.81857833767652299</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>17.672971930714599</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>0.81857833767652299</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>18.2239542988982</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>0.74523072852826999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>29.118727312660798</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>0.11118013042797301</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>29.118727312660798</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>0.11118013042797301</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>27.442938114895899</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0.15666848727973201</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>24.166965971989701</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>0.23517482482237001</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>24.166965971989701</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>0.23517482482237001</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>23.9469661177299</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>0.19819454060202901</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>16.372456238033099</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>0.83886683103731596</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>16.372456238033099</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>0.83886683103731596</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>14.2528654943681</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>0.89226203205283094</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>24.738221836821399</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>0.47711875804972098</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>24.738221836821399</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>0.47711875804972098</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>22.2939333882507</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>0.50257136015585202</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>22.572471951101999</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>0.54513829625399601</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>22.572471951101999</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>0.54513829625399601</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>21.634998151435902</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>0.54236817307285601</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>21.204450535696001</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>0.56860344437199295</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>21.204450535696001</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>0.56860344437199295</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>8.0644268492479405</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>0.99486517458298396</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>26.871827097352899</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>0.362318066504554</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>26.871827097352899</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>0.362318066504554</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>24.8797786443908</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="4">
         <v>0.412317215332899</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>32.7702896723329</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>0.20475639930894901</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>32.7702896723329</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>0.20475639930894901</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>35.396649016292898</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <v>0.103335640706572</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>25.182333164283399</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>0.34095322153928997</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>25.182333164283399</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <v>0.34095322153928997</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>23.7680806436694</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="4">
         <v>0.359502619565926</v>
       </c>
     </row>
